--- a/fairlines2023-04-24.xlsx
+++ b/fairlines2023-04-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98987e24a2b0f31d/Área de Trabalho/corner_stats/corner_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_829D091ABC5E01866B7AA0D51B2740F8E40C57D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE8A2F10-7D80-4641-86F3-3BF48F3722EF}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_829D091ABC5E01866B7AA0D51B2740F8E40C57D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70B5A9C6-8B43-4473-8937-383B4B37EC6B}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-1215" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -146,14 +146,17 @@
     <t>Odd</t>
   </si>
   <si>
-    <t>resultado</t>
+    <t>Probabilidade</t>
+  </si>
+  <si>
+    <t>Resultado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +171,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -218,21 +228,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2159,16 +2173,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2187,6 +2202,9 @@
       <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2201,8 +2219,11 @@
       <c r="D2">
         <v>1.33</v>
       </c>
-      <c r="E2">
-        <v>1.33</v>
+      <c r="E2" s="4">
+        <v>0.84745762711864414</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2218,7 +2239,10 @@
       <c r="D3">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F3">
         <v>-1</v>
       </c>
       <c r="H3" s="3"/>
@@ -2236,8 +2260,11 @@
       <c r="D4">
         <v>2.0699999999999998</v>
       </c>
-      <c r="E4">
-        <v>2.0699999999999998</v>
+      <c r="E4" s="4">
+        <v>0.5376344086021505</v>
+      </c>
+      <c r="F4">
+        <v>1.07</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2253,8 +2280,11 @@
       <c r="D5">
         <v>1.55</v>
       </c>
-      <c r="E5">
-        <v>1.55</v>
+      <c r="E5" s="5">
+        <v>0.7246376811594204</v>
+      </c>
+      <c r="F5">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2270,7 +2300,10 @@
       <c r="D6">
         <v>1.8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="F6">
         <v>-1</v>
       </c>
     </row>
@@ -2287,7 +2320,10 @@
       <c r="D7">
         <v>2.35</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
         <v>-1</v>
       </c>
     </row>
@@ -2304,9 +2340,15 @@
       <c r="D8">
         <v>1.85</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
+        <v>0.64102564102564097</v>
+      </c>
+      <c r="F8">
         <v>-1</v>
       </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
